--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\mianshiya-next-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79806C30-1A47-4E9B-B1A7-56C46D72F9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,21 +35,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>小数</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>字符串</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签列表(json数组)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否为会员专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF54B33E"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF54B33E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF54B33E"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF54B33E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF54B33E"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>啊啊法撒旦多少分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["java","python"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法撒旦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动阀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -57,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -69,12 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -82,14 +161,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF54B33E"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="15"/>
+      <color rgb="FF54B33E"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -115,15 +203,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -144,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -290,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,47 +528,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="4" max="4" width="10.7890625" style="1"/>
+    <col min="6" max="6" width="24.05078125" customWidth="1"/>
+    <col min="7" max="7" width="26.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44844</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>